--- a/papers/data-intensive-bio/results/FDRs.xlsx
+++ b/papers/data-intensive-bio/results/FDRs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="0" windowWidth="25600" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +79,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -399,20 +423,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F230"/>
+  <dimension ref="A1:I230"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -423,7 +447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>72.53</v>
       </c>
@@ -436,8 +460,20 @@
       <c r="F3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <f>FREQUENCY(A3:A99,F3:F12)</f>
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f>FREQUENCY(B3:B230,F3:F12)</f>
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <f>FREQUENCY(C3:C106,F3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>75.56</v>
       </c>
@@ -450,8 +486,20 @@
       <c r="F4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <f>FREQUENCY(A3:A99,F4)</f>
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <f>FREQUENCY(B3:B230,F4)</f>
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <f>FREQUENCY(C3:C106,F4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>68.25</v>
       </c>
@@ -464,8 +512,20 @@
       <c r="F5">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <f>FREQUENCY(A3:A99,F5)</f>
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <f>FREQUENCY(B3:B230,F5)</f>
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <f>FREQUENCY(C3:C106,F5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>78.05</v>
       </c>
@@ -478,8 +538,20 @@
       <c r="F6">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <f>FREQUENCY(A3:A99,F6)</f>
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <f>FREQUENCY(B3:B230,F6)</f>
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <f>FREQUENCY(C3:C106,F6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>66.180000000000007</v>
       </c>
@@ -492,8 +564,20 @@
       <c r="F7">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <f>FREQUENCY(A3:A99,F7)</f>
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <f>FREQUENCY(B3:B230,F7)</f>
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <f>FREQUENCY(C3:C106,F7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>70.489999999999995</v>
       </c>
@@ -506,8 +590,20 @@
       <c r="F8">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <f>FREQUENCY(A3:A99,F8)</f>
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <f>FREQUENCY(B3:B230,F8)</f>
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <f>FREQUENCY(C3:C106,F8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>76.92</v>
       </c>
@@ -520,8 +616,20 @@
       <c r="F9">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <f>FREQUENCY(A3:A99,F9)</f>
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <f>FREQUENCY(B3:B230,F9)</f>
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <f>FREQUENCY(C3:C106,F9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>65.150000000000006</v>
       </c>
@@ -534,8 +642,20 @@
       <c r="F10">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <f>FREQUENCY(A3:A99,F10)</f>
+        <v>87</v>
+      </c>
+      <c r="H10">
+        <f>FREQUENCY(B3:B230,F10)</f>
+        <v>169</v>
+      </c>
+      <c r="I10">
+        <f>FREQUENCY(C3:C106,F10)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>69.349999999999994</v>
       </c>
@@ -548,8 +668,20 @@
       <c r="F11">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <f>FREQUENCY(A3:A99,F11)</f>
+        <v>95</v>
+      </c>
+      <c r="H11">
+        <f>FREQUENCY(B3:B230,F11)</f>
+        <v>200</v>
+      </c>
+      <c r="I11">
+        <f>FREQUENCY(C3:C106,F11)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>68.52</v>
       </c>
@@ -562,8 +694,20 @@
       <c r="F12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <f>FREQUENCY(A3:A99,F12)</f>
+        <v>97</v>
+      </c>
+      <c r="H12">
+        <f>FREQUENCY(B3:B230,F12)</f>
+        <v>228</v>
+      </c>
+      <c r="I12">
+        <f>FREQUENCY(C3:C106,C12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>84.21</v>
       </c>
@@ -574,7 +718,7 @@
         <v>76.56</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>72.5</v>
       </c>
@@ -585,7 +729,7 @@
         <v>74.239999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>20</v>
       </c>
@@ -596,7 +740,7 @@
         <v>76.56</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>75.58</v>
       </c>
@@ -2198,6 +2342,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/papers/data-intensive-bio/results/FDRs.xlsx
+++ b/papers/data-intensive-bio/results/FDRs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>100 MB Peak calling</t>
   </si>
@@ -79,8 +79,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -89,11 +99,21 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -423,20 +443,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I230"/>
+  <dimension ref="A1:L230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -446,8 +466,17 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>72.53</v>
       </c>
@@ -472,8 +501,20 @@
         <f>FREQUENCY(C3:C106,F3)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <f>+(G3/333)</f>
+        <v>6.006006006006006E-3</v>
+      </c>
+      <c r="K3">
+        <f>+H3/614</f>
+        <v>3.2573289902280132E-3</v>
+      </c>
+      <c r="L3">
+        <f>+I3/184</f>
+        <v>5.434782608695652E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>75.56</v>
       </c>
@@ -498,8 +539,20 @@
         <f>FREQUENCY(C3:C106,F4)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <f t="shared" ref="J4:J12" si="0">+(G4/333)</f>
+        <v>9.0090090090090089E-3</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K12" si="1">+H4/614</f>
+        <v>3.2573289902280132E-3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L12" si="2">+I4/184</f>
+        <v>5.434782608695652E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>68.25</v>
       </c>
@@ -524,8 +577,20 @@
         <f>FREQUENCY(C3:C106,F5)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1.2012012012012012E-2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>3.2573289902280132E-3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>5.434782608695652E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>78.05</v>
       </c>
@@ -550,8 +615,20 @@
         <f>FREQUENCY(C3:C106,F6)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1.5015015015015015E-2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>3.2573289902280132E-3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>5.434782608695652E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>66.180000000000007</v>
       </c>
@@ -576,8 +653,20 @@
         <f>FREQUENCY(C3:C106,F7)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1.5015015015015015E-2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>3.2573289902280132E-3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>5.434782608695652E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>70.489999999999995</v>
       </c>
@@ -602,8 +691,20 @@
         <f>FREQUENCY(C3:C106,F8)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>1.5015015015015015E-2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>3.2573289902280132E-3</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>5.434782608695652E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>76.92</v>
       </c>
@@ -628,8 +729,20 @@
         <f>FREQUENCY(C3:C106,F9)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>9.0090090090090086E-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>8.1433224755700327E-3</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>5.434782608695652E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>65.150000000000006</v>
       </c>
@@ -654,8 +767,20 @@
         <f>FREQUENCY(C3:C106,F10)</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0.26126126126126126</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0.27524429967426711</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0.43478260869565216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>69.349999999999994</v>
       </c>
@@ -680,8 +805,20 @@
         <f>FREQUENCY(C3:C106,F11)</f>
         <v>96</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0.28528528528528529</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>0.32573289902280128</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0.52173913043478259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>68.52</v>
       </c>
@@ -706,8 +843,20 @@
         <f>FREQUENCY(C3:C106,C12)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0.29129129129129128</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0.37133550488599348</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>5.434782608695652E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>84.21</v>
       </c>
@@ -717,8 +866,20 @@
       <c r="C13">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="G13">
+        <f>+SUM(G3:G12)</f>
+        <v>333</v>
+      </c>
+      <c r="H13">
+        <f>+SUM(H3:H12)</f>
+        <v>614</v>
+      </c>
+      <c r="I13">
+        <f>+SUM(I3:I12)</f>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>72.5</v>
       </c>
@@ -729,7 +890,7 @@
         <v>74.239999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>20</v>
       </c>
@@ -740,7 +901,7 @@
         <v>76.56</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>75.58</v>
       </c>

--- a/papers/data-intensive-bio/results/FDRs.xlsx
+++ b/papers/data-intensive-bio/results/FDRs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1700" yWindow="600" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:L230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/papers/data-intensive-bio/results/FDRs.xlsx
+++ b/papers/data-intensive-bio/results/FDRs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="600" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="4">
   <si>
     <t>100 MB Peak calling</t>
   </si>
@@ -37,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -61,13 +61,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -79,7 +98,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -95,11 +114,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="15"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="56">
+    <cellStyle name="Bad" xfId="15" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -107,6 +170,26 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -114,11 +197,420 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.138794465851343"/>
+          <c:y val="0.047557003257329"/>
+          <c:w val="0.837392220919194"/>
+          <c:h val="0.834028572161379"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BFAST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$4:$T$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0206185567010309</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0103092783505155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0103092783505155</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0103092783505155</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.350515463917526</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.494845360824742</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0824742268041237</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0206185567010309</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BWA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$4:$U$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0087719298245614</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0219298245614035</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.714912280701754</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.131578947368421</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12280701754386</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bowtie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$4:$V$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.00961538461538461</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.759615384615385</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0769230769230769</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="590873656"/>
+        <c:axId val="690729816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="590873656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FDR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="690729816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="690729816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Normalized</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0159275702239348"/>
+              <c:y val="0.261711313500956"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="590873656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.383601129232496"/>
+          <c:y val="0.125001923619482"/>
+          <c:w val="0.125931898140392"/>
+          <c:h val="0.214071256758701"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,20 +935,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L230"/>
+  <dimension ref="A1:AE230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3:V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -466,17 +958,30 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3">
         <v>72.53</v>
       </c>
@@ -486,35 +991,62 @@
       <c r="C3">
         <v>76.56</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <f>FREQUENCY(A3:A99,F3:F12)</f>
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <f>FREQUENCY(B3:B230,F3:F12)</f>
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <f>FREQUENCY(C3:C106,F3)</f>
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <f>+(G3/333)</f>
         <v>6.006006006006006E-3</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <f>+H3/614</f>
         <v>3.2573289902280132E-3</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <f>+I3/184</f>
         <v>5.434782608695652E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="Q3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>73.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4">
         <v>75.56</v>
       </c>
@@ -524,35 +1056,68 @@
       <c r="C4">
         <v>76.56</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>20</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <f>FREQUENCY(A3:A99,F4)</f>
         <v>3</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <f>FREQUENCY(B3:B230,F4)</f>
         <v>2</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <f>FREQUENCY(C3:C106,F4)</f>
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <f t="shared" ref="J4:J12" si="0">+(G4/333)</f>
         <v>9.0090090090090089E-3</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <f t="shared" ref="K4:K12" si="1">+H4/614</f>
         <v>3.2573289902280132E-3</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <f t="shared" ref="L4:L12" si="2">+I4/184</f>
         <v>5.434782608695652E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <f>+Q4/Q15</f>
+        <v>2.0618556701030927E-2</v>
+      </c>
+      <c r="U4">
+        <f>+R4/R15</f>
+        <v>8.771929824561403E-3</v>
+      </c>
+      <c r="V4">
+        <f>+S4/S15</f>
+        <v>9.6153846153846159E-3</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>20</v>
+      </c>
+      <c r="AC4">
+        <v>69.62</v>
+      </c>
+      <c r="AE4">
+        <v>74.239999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5">
         <v>68.25</v>
       </c>
@@ -562,35 +1127,68 @@
       <c r="C5">
         <v>76.56</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>30</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <f>FREQUENCY(A3:A99,F5)</f>
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <f>FREQUENCY(B3:B230,F5)</f>
         <v>2</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <f>FREQUENCY(C3:C106,F5)</f>
         <v>1</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>1.2012012012012012E-2</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <f t="shared" si="1"/>
         <v>3.2573289902280132E-3</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <f t="shared" si="2"/>
         <v>5.434782608695652E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f>+Q5/Q15</f>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ref="U5:U14" si="3">+R5/R16</f>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ref="V5:V14" si="4">+S5/S16</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>25</v>
+      </c>
+      <c r="AC5">
+        <v>69.62</v>
+      </c>
+      <c r="AE5">
+        <v>74.239999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6">
         <v>78.05</v>
       </c>
@@ -600,35 +1198,68 @@
       <c r="C6">
         <v>100</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>40</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <f>FREQUENCY(A3:A99,F6)</f>
         <v>5</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <f>FREQUENCY(B3:B230,F6)</f>
         <v>2</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <f>FREQUENCY(C3:C106,F6)</f>
         <v>1</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>1.5015015015015015E-2</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <f t="shared" si="1"/>
         <v>3.2573289902280132E-3</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <f t="shared" si="2"/>
         <v>5.434782608695652E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="P6">
+        <v>20</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f>+Q6/Q15</f>
+        <v>1.0309278350515464E-2</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>33.33</v>
+      </c>
+      <c r="AC6">
+        <v>69.739999999999995</v>
+      </c>
+      <c r="AE6">
+        <v>75.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7">
         <v>66.180000000000007</v>
       </c>
@@ -638,35 +1269,68 @@
       <c r="C7">
         <v>76.56</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>50</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <f>FREQUENCY(A3:A99,F7)</f>
         <v>5</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <f>FREQUENCY(B3:B230,F7)</f>
         <v>2</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <f>FREQUENCY(C3:C106,F7)</f>
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>1.5015015015015015E-2</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <f t="shared" si="1"/>
         <v>3.2573289902280132E-3</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <f t="shared" si="2"/>
         <v>5.434782608695652E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="P7">
+        <v>30</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f>+Q7/Q15</f>
+        <v>1.0309278350515464E-2</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>62.67</v>
+      </c>
+      <c r="AC7">
+        <v>70.13</v>
+      </c>
+      <c r="AE7">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8">
         <v>70.489999999999995</v>
       </c>
@@ -676,35 +1340,68 @@
       <c r="C8">
         <v>76.56</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>60</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <f>FREQUENCY(A3:A99,F8)</f>
         <v>5</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <f>FREQUENCY(B3:B230,F8)</f>
         <v>2</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <f>FREQUENCY(C3:C106,F8)</f>
         <v>1</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
         <v>1.5015015015015015E-2</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <f t="shared" si="1"/>
         <v>3.2573289902280132E-3</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <f t="shared" si="2"/>
         <v>5.434782608695652E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="P8">
+        <v>40</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f>+Q8/Q15</f>
+        <v>1.0309278350515464E-2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>63.01</v>
+      </c>
+      <c r="AC8">
+        <v>70.67</v>
+      </c>
+      <c r="AE8">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9">
         <v>76.92</v>
       </c>
@@ -714,35 +1411,68 @@
       <c r="C9">
         <v>77.27</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>70</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <f>FREQUENCY(A3:A99,F9)</f>
         <v>30</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <f>FREQUENCY(B3:B230,F9)</f>
         <v>5</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <f>FREQUENCY(C3:C106,F9)</f>
         <v>1</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
         <v>9.0090090090090086E-2</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <f t="shared" si="1"/>
         <v>8.1433224755700327E-3</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <f t="shared" si="2"/>
         <v>5.434782608695652E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="P9">
+        <v>50</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f>+Q9/Q15</f>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>63.51</v>
+      </c>
+      <c r="AC9">
+        <v>71.069999999999993</v>
+      </c>
+      <c r="AE9">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10">
         <v>65.150000000000006</v>
       </c>
@@ -752,35 +1482,68 @@
       <c r="C10">
         <v>76.56</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>80</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <f>FREQUENCY(A3:A99,F10)</f>
         <v>87</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <f>FREQUENCY(B3:B230,F10)</f>
         <v>169</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <f>FREQUENCY(C3:C106,F10)</f>
         <v>80</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
         <v>0.26126126126126126</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <f t="shared" si="1"/>
         <v>0.27524429967426711</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <f t="shared" si="2"/>
         <v>0.43478260869565216</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="P10">
+        <v>60</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f>+Q10/Q15</f>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>63.89</v>
+      </c>
+      <c r="AC10">
+        <v>71.28</v>
+      </c>
+      <c r="AE10">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11">
         <v>69.349999999999994</v>
       </c>
@@ -790,35 +1553,68 @@
       <c r="C11">
         <v>76.56</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>90</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <f>FREQUENCY(A3:A99,F11)</f>
         <v>95</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <f>FREQUENCY(B3:B230,F11)</f>
         <v>200</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <f>FREQUENCY(C3:C106,F11)</f>
         <v>96</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
         <v>0.28528528528528529</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <f t="shared" si="1"/>
         <v>0.32573289902280128</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <f t="shared" si="2"/>
         <v>0.52173913043478259</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="P11">
+        <v>70</v>
+      </c>
+      <c r="Q11">
+        <v>34</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f>+Q11/Q15</f>
+        <v>0.35051546391752575</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="3"/>
+        <v>2.1929824561403508E-2</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>64.180000000000007</v>
+      </c>
+      <c r="AC11">
+        <v>71.3</v>
+      </c>
+      <c r="AE11">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12">
         <v>68.52</v>
       </c>
@@ -828,35 +1624,68 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="2">
+        <v>100</v>
+      </c>
+      <c r="G12" s="2">
         <f>FREQUENCY(A3:A99,F12)</f>
         <v>97</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <f>FREQUENCY(B3:B230,F12)</f>
         <v>228</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <f>FREQUENCY(C3:C106,C12)</f>
         <v>1</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
         <v>0.29129129129129128</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="2">
         <f t="shared" si="1"/>
         <v>0.37133550488599348</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <f t="shared" si="2"/>
         <v>5.434782608695652E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="P12">
+        <v>80</v>
+      </c>
+      <c r="Q12">
+        <v>48</v>
+      </c>
+      <c r="R12">
+        <v>163</v>
+      </c>
+      <c r="S12">
+        <v>79</v>
+      </c>
+      <c r="T12">
+        <f>+Q12/Q15</f>
+        <v>0.49484536082474229</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="3"/>
+        <v>0.71491228070175439</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="4"/>
+        <v>0.75961538461538458</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>64.790000000000006</v>
+      </c>
+      <c r="AC12">
+        <v>71.31</v>
+      </c>
+      <c r="AE12">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13">
         <v>84.21</v>
       </c>
@@ -866,20 +1695,57 @@
       <c r="C13">
         <v>76.56</v>
       </c>
-      <c r="G13">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
         <f>+SUM(G3:G12)</f>
         <v>333</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <f>+SUM(H3:H12)</f>
         <v>614</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <f>+SUM(I3:I12)</f>
         <v>184</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="P13">
+        <v>90</v>
+      </c>
+      <c r="Q13">
+        <v>8</v>
+      </c>
+      <c r="R13">
+        <v>30</v>
+      </c>
+      <c r="S13">
+        <v>16</v>
+      </c>
+      <c r="T13">
+        <f>+Q13/Q15</f>
+        <v>8.247422680412371E-2</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="3"/>
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="4"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>65.150000000000006</v>
+      </c>
+      <c r="AC13">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="AE13">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14">
         <v>72.5</v>
       </c>
@@ -889,8 +1755,48 @@
       <c r="C14">
         <v>74.239999999999995</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="P14">
+        <v>100</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>28</v>
+      </c>
+      <c r="S14">
+        <v>8</v>
+      </c>
+      <c r="T14">
+        <f>+Q14/Q15</f>
+        <v>2.0618556701030927E-2</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="3"/>
+        <v>0.12280701754385964</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>65.150000000000006</v>
+      </c>
+      <c r="AC14">
+        <v>71.62</v>
+      </c>
+      <c r="AE14">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15">
         <v>20</v>
       </c>
@@ -900,8 +1806,33 @@
       <c r="C15">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="Q15">
+        <v>97</v>
+      </c>
+      <c r="R15">
+        <v>228</v>
+      </c>
+      <c r="S15">
+        <v>104</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>65.709999999999994</v>
+      </c>
+      <c r="AC15">
+        <v>71.67</v>
+      </c>
+      <c r="AE15">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16">
         <v>75.58</v>
       </c>
@@ -911,8 +1842,23 @@
       <c r="C16">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="R16">
+        <v>228</v>
+      </c>
+      <c r="S16">
+        <v>104</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>66.180000000000007</v>
+      </c>
+      <c r="AC16">
+        <v>71.930000000000007</v>
+      </c>
+      <c r="AE16">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17">
         <v>65.709999999999994</v>
       </c>
@@ -922,8 +1868,23 @@
       <c r="C17">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="R17">
+        <v>228</v>
+      </c>
+      <c r="S17">
+        <v>104</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>66.67</v>
+      </c>
+      <c r="AC17">
+        <v>71.930000000000007</v>
+      </c>
+      <c r="AE17">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18">
         <v>72.5</v>
       </c>
@@ -933,8 +1894,23 @@
       <c r="C18">
         <v>84.38</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="R18">
+        <v>228</v>
+      </c>
+      <c r="S18">
+        <v>104</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>66.67</v>
+      </c>
+      <c r="AC18">
+        <v>72.02</v>
+      </c>
+      <c r="AE18">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19">
         <v>74.19</v>
       </c>
@@ -944,8 +1920,23 @@
       <c r="C19">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="R19">
+        <v>228</v>
+      </c>
+      <c r="S19" s="1">
+        <v>104</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>67.11</v>
+      </c>
+      <c r="AC19">
+        <v>72.03</v>
+      </c>
+      <c r="AE19">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20">
         <v>67.19</v>
       </c>
@@ -955,8 +1946,23 @@
       <c r="C20">
         <v>84.38</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="R20">
+        <v>228</v>
+      </c>
+      <c r="S20">
+        <v>104</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>67.19</v>
+      </c>
+      <c r="AC20">
+        <v>72.040000000000006</v>
+      </c>
+      <c r="AE20">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21">
         <v>75</v>
       </c>
@@ -966,8 +1972,23 @@
       <c r="C21">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="R21">
+        <v>228</v>
+      </c>
+      <c r="S21">
+        <v>104</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>67.27</v>
+      </c>
+      <c r="AC21">
+        <v>72.22</v>
+      </c>
+      <c r="AE21">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22">
         <v>72.22</v>
       </c>
@@ -977,8 +1998,23 @@
       <c r="C22">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="R22">
+        <v>228</v>
+      </c>
+      <c r="S22" s="1">
+        <v>104</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>67.86</v>
+      </c>
+      <c r="AC22">
+        <v>72.25</v>
+      </c>
+      <c r="AE22">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
       <c r="A23">
         <v>100</v>
       </c>
@@ -988,8 +2024,23 @@
       <c r="C23">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="R23">
+        <v>228</v>
+      </c>
+      <c r="S23" s="1">
+        <v>104</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>68</v>
+      </c>
+      <c r="AC23">
+        <v>72.25</v>
+      </c>
+      <c r="AE23">
+        <v>76.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24">
         <v>69.23</v>
       </c>
@@ -999,8 +2050,23 @@
       <c r="C24">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="R24">
+        <v>228</v>
+      </c>
+      <c r="S24" s="1">
+        <v>104</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>68.25</v>
+      </c>
+      <c r="AC24">
+        <v>72.25</v>
+      </c>
+      <c r="AE24">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
       <c r="A25">
         <v>75</v>
       </c>
@@ -1010,8 +2076,23 @@
       <c r="C25">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="R25">
+        <v>228</v>
+      </c>
+      <c r="S25" s="1">
+        <v>104</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>68.52</v>
+      </c>
+      <c r="AC25">
+        <v>72.25</v>
+      </c>
+      <c r="AE25">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
       <c r="A26">
         <v>74.39</v>
       </c>
@@ -1021,8 +2102,17 @@
       <c r="C26">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="AA26" s="1">
+        <v>68.63</v>
+      </c>
+      <c r="AC26">
+        <v>72.25</v>
+      </c>
+      <c r="AE26">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
       <c r="A27">
         <v>67.27</v>
       </c>
@@ -1032,8 +2122,17 @@
       <c r="C27">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="AA27" s="1">
+        <v>68.63</v>
+      </c>
+      <c r="AC27">
+        <v>72.25</v>
+      </c>
+      <c r="AE27">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
       <c r="A28">
         <v>64.180000000000007</v>
       </c>
@@ -1043,8 +2142,17 @@
       <c r="C28">
         <v>82.02</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="AA28" s="1">
+        <v>69.23</v>
+      </c>
+      <c r="AC28">
+        <v>72.25</v>
+      </c>
+      <c r="AE28">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
       <c r="A29">
         <v>71.88</v>
       </c>
@@ -1054,8 +2162,17 @@
       <c r="C29">
         <v>73.13</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="AA29" s="1">
+        <v>69.349999999999994</v>
+      </c>
+      <c r="AC29">
+        <v>72.349999999999994</v>
+      </c>
+      <c r="AE29">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
       <c r="A30">
         <v>76.47</v>
       </c>
@@ -1065,8 +2182,17 @@
       <c r="C30">
         <v>77.010000000000005</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="AA30" s="1">
+        <v>69.39</v>
+      </c>
+      <c r="AC30">
+        <v>72.53</v>
+      </c>
+      <c r="AE30">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
       <c r="A31">
         <v>71.19</v>
       </c>
@@ -1076,8 +2202,17 @@
       <c r="C31">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="AA31" s="1">
+        <v>69.81</v>
+      </c>
+      <c r="AC31">
+        <v>72.55</v>
+      </c>
+      <c r="AE31">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
       <c r="A32">
         <v>69.39</v>
       </c>
@@ -1087,8 +2222,17 @@
       <c r="C32">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="AA32" s="1">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="AC32">
+        <v>72.55</v>
+      </c>
+      <c r="AE32">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
       <c r="A33">
         <v>88.89</v>
       </c>
@@ -1098,8 +2242,17 @@
       <c r="C33">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="AA33" s="1">
+        <v>70.489999999999995</v>
+      </c>
+      <c r="AC33">
+        <v>72.55</v>
+      </c>
+      <c r="AE33">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31">
       <c r="A34">
         <v>63.51</v>
       </c>
@@ -1109,8 +2262,17 @@
       <c r="C34">
         <v>84.38</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="AA34" s="1">
+        <v>70.53</v>
+      </c>
+      <c r="AC34">
+        <v>72.55</v>
+      </c>
+      <c r="AE34">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
       <c r="A35">
         <v>70.97</v>
       </c>
@@ -1120,8 +2282,17 @@
       <c r="C35">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="AA35" s="1">
+        <v>70.59</v>
+      </c>
+      <c r="AC35">
+        <v>72.55</v>
+      </c>
+      <c r="AE35">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31">
       <c r="A36">
         <v>70.83</v>
       </c>
@@ -1131,8 +2302,17 @@
       <c r="C36">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="AA36" s="1">
+        <v>70.59</v>
+      </c>
+      <c r="AC36">
+        <v>72.55</v>
+      </c>
+      <c r="AE36">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
       <c r="A37">
         <v>74.42</v>
       </c>
@@ -1142,8 +2322,17 @@
       <c r="C37">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="AA37" s="1">
+        <v>70.83</v>
+      </c>
+      <c r="AC37">
+        <v>72.55</v>
+      </c>
+      <c r="AE37">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
       <c r="A38">
         <v>73.91</v>
       </c>
@@ -1153,8 +2342,17 @@
       <c r="C38">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="AA38" s="1">
+        <v>70.83</v>
+      </c>
+      <c r="AC38">
+        <v>72.55</v>
+      </c>
+      <c r="AE38">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
       <c r="A39">
         <v>69.81</v>
       </c>
@@ -1164,8 +2362,17 @@
       <c r="C39">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="AA39" s="1">
+        <v>70.83</v>
+      </c>
+      <c r="AC39">
+        <v>72.55</v>
+      </c>
+      <c r="AE39">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
       <c r="A40">
         <v>74.709999999999994</v>
       </c>
@@ -1175,8 +2382,17 @@
       <c r="C40">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="AA40" s="1">
+        <v>70.97</v>
+      </c>
+      <c r="AC40">
+        <v>72.55</v>
+      </c>
+      <c r="AE40">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
       <c r="A41">
         <v>88.89</v>
       </c>
@@ -1186,8 +2402,17 @@
       <c r="C41">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="AA41" s="1">
+        <v>71.19</v>
+      </c>
+      <c r="AC41">
+        <v>72.55</v>
+      </c>
+      <c r="AE41">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
       <c r="A42">
         <v>84.62</v>
       </c>
@@ -1197,8 +2422,17 @@
       <c r="C42">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="AA42" s="1">
+        <v>71.19</v>
+      </c>
+      <c r="AC42">
+        <v>72.55</v>
+      </c>
+      <c r="AE42">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31">
       <c r="A43">
         <v>72.73</v>
       </c>
@@ -1208,8 +2442,17 @@
       <c r="C43">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="AA43" s="1">
+        <v>71.28</v>
+      </c>
+      <c r="AC43">
+        <v>72.55</v>
+      </c>
+      <c r="AE43">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
       <c r="A44">
         <v>72.22</v>
       </c>
@@ -1219,8 +2462,17 @@
       <c r="C44">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="AA44" s="1">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="AC44">
+        <v>72.55</v>
+      </c>
+      <c r="AE44">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
       <c r="A45">
         <v>73.680000000000007</v>
       </c>
@@ -1230,8 +2482,17 @@
       <c r="C45">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="AA45" s="1">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="AC45">
+        <v>72.55</v>
+      </c>
+      <c r="AE45">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
       <c r="A46">
         <v>70.53</v>
       </c>
@@ -1241,8 +2502,17 @@
       <c r="C46">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="AA46" s="1">
+        <v>71.67</v>
+      </c>
+      <c r="AC46">
+        <v>72.55</v>
+      </c>
+      <c r="AE46">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
       <c r="A47">
         <v>74.069999999999993</v>
       </c>
@@ -1252,8 +2522,17 @@
       <c r="C47">
         <v>76.19</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="AA47" s="1">
+        <v>71.739999999999995</v>
+      </c>
+      <c r="AC47">
+        <v>72.55</v>
+      </c>
+      <c r="AE47">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31">
       <c r="A48">
         <v>76.92</v>
       </c>
@@ -1263,8 +2542,17 @@
       <c r="C48">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="AA48" s="1">
+        <v>71.88</v>
+      </c>
+      <c r="AC48">
+        <v>72.55</v>
+      </c>
+      <c r="AE48">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31">
       <c r="A49">
         <v>75</v>
       </c>
@@ -1274,8 +2562,17 @@
       <c r="C49">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="AA49" s="1">
+        <v>72.22</v>
+      </c>
+      <c r="AC49">
+        <v>72.55</v>
+      </c>
+      <c r="AE49">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31">
       <c r="A50">
         <v>75</v>
       </c>
@@ -1285,8 +2582,17 @@
       <c r="C50">
         <v>88.12</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="AA50" s="1">
+        <v>72.22</v>
+      </c>
+      <c r="AC50">
+        <v>72.55</v>
+      </c>
+      <c r="AE50">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31">
       <c r="A51">
         <v>71.430000000000007</v>
       </c>
@@ -1296,8 +2602,17 @@
       <c r="C51">
         <v>100</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="AA51" s="1">
+        <v>72.22</v>
+      </c>
+      <c r="AC51">
+        <v>72.55</v>
+      </c>
+      <c r="AE51">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31">
       <c r="A52">
         <v>71.67</v>
       </c>
@@ -1307,8 +2622,17 @@
       <c r="C52">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="AA52" s="1">
+        <v>72.34</v>
+      </c>
+      <c r="AC52">
+        <v>72.55</v>
+      </c>
+      <c r="AE52">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31">
       <c r="A53">
         <v>70.83</v>
       </c>
@@ -1318,8 +2642,17 @@
       <c r="C53">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="AA53" s="1">
+        <v>72.5</v>
+      </c>
+      <c r="AC53">
+        <v>72.55</v>
+      </c>
+      <c r="AE53">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31">
       <c r="A54">
         <v>70.099999999999994</v>
       </c>
@@ -1329,8 +2662,17 @@
       <c r="C54">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="AA54" s="1">
+        <v>72.5</v>
+      </c>
+      <c r="AC54">
+        <v>72.55</v>
+      </c>
+      <c r="AE54">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31">
       <c r="A55">
         <v>100</v>
       </c>
@@ -1340,8 +2682,17 @@
       <c r="C55">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="AA55" s="1">
+        <v>72.5</v>
+      </c>
+      <c r="AC55">
+        <v>72.55</v>
+      </c>
+      <c r="AE55">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31">
       <c r="A56">
         <v>66.67</v>
       </c>
@@ -1351,8 +2702,17 @@
       <c r="C56">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="AA56" s="1">
+        <v>72.53</v>
+      </c>
+      <c r="AC56">
+        <v>72.55</v>
+      </c>
+      <c r="AE56">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31">
       <c r="A57">
         <v>72.73</v>
       </c>
@@ -1362,8 +2722,17 @@
       <c r="C57">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="AA57" s="1">
+        <v>72.73</v>
+      </c>
+      <c r="AC57">
+        <v>72.56</v>
+      </c>
+      <c r="AE57">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31">
       <c r="A58">
         <v>75.680000000000007</v>
       </c>
@@ -1373,8 +2742,17 @@
       <c r="C58">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="AA58" s="1">
+        <v>72.73</v>
+      </c>
+      <c r="AC58">
+        <v>72.569999999999993</v>
+      </c>
+      <c r="AE58">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31">
       <c r="A59">
         <v>70.59</v>
       </c>
@@ -1384,8 +2762,17 @@
       <c r="C59">
         <v>76.47</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="AA59" s="1">
+        <v>73.33</v>
+      </c>
+      <c r="AC59">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="AE59">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31">
       <c r="A60">
         <v>72.34</v>
       </c>
@@ -1395,8 +2782,17 @@
       <c r="C60">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="AA60" s="1">
+        <v>73.489999999999995</v>
+      </c>
+      <c r="AC60">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="AE60">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31">
       <c r="A61">
         <v>73.91</v>
       </c>
@@ -1406,8 +2802,17 @@
       <c r="C61">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="AA61" s="1">
+        <v>73.680000000000007</v>
+      </c>
+      <c r="AC61">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="AE61">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31">
       <c r="A62">
         <v>71.430000000000007</v>
       </c>
@@ -1417,8 +2822,17 @@
       <c r="C62">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="AA62" s="1">
+        <v>73.680000000000007</v>
+      </c>
+      <c r="AC62">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="AE62">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31">
       <c r="A63">
         <v>0</v>
       </c>
@@ -1428,8 +2842,17 @@
       <c r="C63">
         <v>85.58</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="AA63" s="1">
+        <v>73.91</v>
+      </c>
+      <c r="AC63">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="AE63">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31">
       <c r="A64">
         <v>84.62</v>
       </c>
@@ -1439,8 +2862,17 @@
       <c r="C64">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="AA64" s="1">
+        <v>73.91</v>
+      </c>
+      <c r="AC64">
+        <v>72.650000000000006</v>
+      </c>
+      <c r="AE64">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31">
       <c r="A65">
         <v>72.5</v>
       </c>
@@ -1450,8 +2882,17 @@
       <c r="C65">
         <v>85.58</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="AA65" s="1">
+        <v>74.069999999999993</v>
+      </c>
+      <c r="AC65">
+        <v>72.680000000000007</v>
+      </c>
+      <c r="AE65">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31">
       <c r="A66">
         <v>73.680000000000007</v>
       </c>
@@ -1461,8 +2902,17 @@
       <c r="C66">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="AA66" s="1">
+        <v>74.19</v>
+      </c>
+      <c r="AC66">
+        <v>72.69</v>
+      </c>
+      <c r="AE66">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31">
       <c r="A67">
         <v>71.19</v>
       </c>
@@ -1472,8 +2922,17 @@
       <c r="C67">
         <v>75.58</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="AA67" s="1">
+        <v>74.39</v>
+      </c>
+      <c r="AC67">
+        <v>72.73</v>
+      </c>
+      <c r="AE67">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31">
       <c r="A68">
         <v>0</v>
       </c>
@@ -1483,8 +2942,17 @@
       <c r="C68">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="AA68" s="1">
+        <v>74.42</v>
+      </c>
+      <c r="AC68">
+        <v>72.83</v>
+      </c>
+      <c r="AE68">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31">
       <c r="A69">
         <v>81.819999999999993</v>
       </c>
@@ -1494,8 +2962,17 @@
       <c r="C69">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="AA69" s="1">
+        <v>74.42</v>
+      </c>
+      <c r="AC69">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="AE69">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31">
       <c r="A70">
         <v>75.31</v>
       </c>
@@ -1505,8 +2982,17 @@
       <c r="C70">
         <v>83.51</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="AA70" s="1">
+        <v>74.709999999999994</v>
+      </c>
+      <c r="AC70">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="AE70">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31">
       <c r="A71">
         <v>65.150000000000006</v>
       </c>
@@ -1516,8 +3002,17 @@
       <c r="C71">
         <v>88</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="AA71" s="1">
+        <v>75</v>
+      </c>
+      <c r="AC71">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="AE71">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31">
       <c r="A72">
         <v>67.86</v>
       </c>
@@ -1527,8 +3022,17 @@
       <c r="C72">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="AA72" s="1">
+        <v>75</v>
+      </c>
+      <c r="AC72">
+        <v>72.95</v>
+      </c>
+      <c r="AE72">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31">
       <c r="A73">
         <v>76.19</v>
       </c>
@@ -1538,8 +3042,17 @@
       <c r="C73">
         <v>82.65</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="AA73" s="1">
+        <v>75</v>
+      </c>
+      <c r="AC73">
+        <v>73.03</v>
+      </c>
+      <c r="AE73">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31">
       <c r="A74">
         <v>71.28</v>
       </c>
@@ -1549,8 +3062,17 @@
       <c r="C74">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="AA74" s="1">
+        <v>75</v>
+      </c>
+      <c r="AC74">
+        <v>73.03</v>
+      </c>
+      <c r="AE74">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31">
       <c r="A75">
         <v>73.33</v>
       </c>
@@ -1560,8 +3082,17 @@
       <c r="C75">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="AA75" s="1">
+        <v>75.31</v>
+      </c>
+      <c r="AC75">
+        <v>73.03</v>
+      </c>
+      <c r="AE75">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31">
       <c r="A76">
         <v>80</v>
       </c>
@@ -1571,8 +3102,17 @@
       <c r="C76">
         <v>85.58</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="AA76" s="1">
+        <v>75.56</v>
+      </c>
+      <c r="AC76">
+        <v>73.03</v>
+      </c>
+      <c r="AE76">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31">
       <c r="A77">
         <v>68</v>
       </c>
@@ -1582,8 +3122,17 @@
       <c r="C77">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="AA77" s="1">
+        <v>75.58</v>
+      </c>
+      <c r="AC77">
+        <v>73.03</v>
+      </c>
+      <c r="AE77">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31">
       <c r="A78">
         <v>73.489999999999995</v>
       </c>
@@ -1593,8 +3142,17 @@
       <c r="C78">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="AA78" s="1">
+        <v>75.680000000000007</v>
+      </c>
+      <c r="AC78">
+        <v>73.08</v>
+      </c>
+      <c r="AE78">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31">
       <c r="A79">
         <v>77.27</v>
       </c>
@@ -1604,8 +3162,17 @@
       <c r="C79">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="AA79" s="1">
+        <v>75.86</v>
+      </c>
+      <c r="AC79">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="AE79">
+        <v>76.56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31">
       <c r="A80">
         <v>71.739999999999995</v>
       </c>
@@ -1615,8 +3182,17 @@
       <c r="C80">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="AA80" s="1">
+        <v>76.19</v>
+      </c>
+      <c r="AC80">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="AE80">
+        <v>77.010000000000005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31">
       <c r="A81">
         <v>76.19</v>
       </c>
@@ -1626,8 +3202,17 @@
       <c r="C81">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="AA81" s="1">
+        <v>76.19</v>
+      </c>
+      <c r="AC81">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="AE81">
+        <v>77.27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31">
       <c r="A82">
         <v>66.67</v>
       </c>
@@ -1637,8 +3222,17 @@
       <c r="C82">
         <v>84.38</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="AA82" s="1">
+        <v>76.47</v>
+      </c>
+      <c r="AC82">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="AE82">
+        <v>82.02</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31">
       <c r="A83">
         <v>70.59</v>
       </c>
@@ -1648,8 +3242,17 @@
       <c r="C83">
         <v>88</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="AA83" s="1">
+        <v>76.92</v>
+      </c>
+      <c r="AC83">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="AE83">
+        <v>82.65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31">
       <c r="A84">
         <v>68.63</v>
       </c>
@@ -1659,8 +3262,17 @@
       <c r="C84">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="AA84" s="1">
+        <v>76.92</v>
+      </c>
+      <c r="AC84">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="AE84">
+        <v>83.51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31">
       <c r="A85">
         <v>25</v>
       </c>
@@ -1670,8 +3282,17 @@
       <c r="C85">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="AA85" s="1">
+        <v>77.27</v>
+      </c>
+      <c r="AC85">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="AE85">
+        <v>84.38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31">
       <c r="A86">
         <v>67.11</v>
       </c>
@@ -1681,8 +3302,17 @@
       <c r="C86">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="AA86" s="1">
+        <v>78.05</v>
+      </c>
+      <c r="AC86">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="AE86">
+        <v>84.38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31">
       <c r="A87">
         <v>85.71</v>
       </c>
@@ -1692,8 +3322,17 @@
       <c r="C87">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="AA87" s="1">
+        <v>80</v>
+      </c>
+      <c r="AC87">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="AE87">
+        <v>84.38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31">
       <c r="A88">
         <v>75.86</v>
       </c>
@@ -1703,8 +3342,17 @@
       <c r="C88">
         <v>74.239999999999995</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="AA88" s="1">
+        <v>80</v>
+      </c>
+      <c r="AC88">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="AE88">
+        <v>84.38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31">
       <c r="A89">
         <v>63.89</v>
       </c>
@@ -1714,8 +3362,17 @@
       <c r="C89">
         <v>84.38</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="AA89" s="1">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="AC89">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="AE89">
+        <v>84.38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31">
       <c r="A90">
         <v>90</v>
       </c>
@@ -1725,8 +3382,17 @@
       <c r="C90">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="AA90" s="1">
+        <v>84.21</v>
+      </c>
+      <c r="AC90">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="AE90">
+        <v>84.38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31">
       <c r="A91">
         <v>62.67</v>
       </c>
@@ -1736,8 +3402,17 @@
       <c r="C91">
         <v>84.38</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="AA91" s="1">
+        <v>84.62</v>
+      </c>
+      <c r="AC91">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="AE91">
+        <v>84.38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:31">
       <c r="A92">
         <v>80</v>
       </c>
@@ -1747,8 +3422,17 @@
       <c r="C92">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="AA92" s="1">
+        <v>84.62</v>
+      </c>
+      <c r="AC92">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="AE92">
+        <v>85.58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31">
       <c r="A93">
         <v>70.83</v>
       </c>
@@ -1758,8 +3442,17 @@
       <c r="C93">
         <v>100</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="AA93" s="1">
+        <v>85.71</v>
+      </c>
+      <c r="AC93">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="AE93">
+        <v>85.58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31">
       <c r="A94">
         <v>72.22</v>
       </c>
@@ -1769,8 +3462,17 @@
       <c r="C94">
         <v>84.38</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="AA94" s="1">
+        <v>88.89</v>
+      </c>
+      <c r="AC94">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="AE94">
+        <v>85.58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31">
       <c r="A95">
         <v>63.01</v>
       </c>
@@ -1780,8 +3482,17 @@
       <c r="C95">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="AA95" s="1">
+        <v>88.89</v>
+      </c>
+      <c r="AC95">
+        <v>73.28</v>
+      </c>
+      <c r="AE95">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31">
       <c r="A96">
         <v>74.42</v>
       </c>
@@ -1791,8 +3502,17 @@
       <c r="C96">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="AA96" s="1">
+        <v>90</v>
+      </c>
+      <c r="AC96">
+        <v>73.3</v>
+      </c>
+      <c r="AE96">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:31">
       <c r="A97">
         <v>33.33</v>
       </c>
@@ -1802,8 +3522,17 @@
       <c r="C97">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="AA97" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC97">
+        <v>73.38</v>
+      </c>
+      <c r="AE97">
+        <v>88.12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:31">
       <c r="A98">
         <v>68.63</v>
       </c>
@@ -1813,8 +3542,17 @@
       <c r="C98">
         <v>100</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="AA98" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC98">
+        <v>73.680000000000007</v>
+      </c>
+      <c r="AE98">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:31">
       <c r="A99">
         <v>64.790000000000006</v>
       </c>
@@ -1824,686 +3562,1104 @@
       <c r="C99">
         <v>100</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="AC99">
+        <v>73.81</v>
+      </c>
+      <c r="AE99">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:31">
       <c r="B100">
         <v>77.099999999999994</v>
       </c>
       <c r="C100">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="AC100">
+        <v>73.81</v>
+      </c>
+      <c r="AE100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:31">
       <c r="B101">
         <v>77.16</v>
       </c>
       <c r="C101">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="AC101">
+        <v>73.81</v>
+      </c>
+      <c r="AE101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:31">
       <c r="B102">
         <v>72.900000000000006</v>
       </c>
       <c r="C102">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="AC102">
+        <v>73.81</v>
+      </c>
+      <c r="AE102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:31">
       <c r="B103">
         <v>71.069999999999993</v>
       </c>
       <c r="C103">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="AC103">
+        <v>73.81</v>
+      </c>
+      <c r="AE103">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:31">
       <c r="B104">
         <v>72.55</v>
       </c>
       <c r="C104">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="AC104">
+        <v>73.81</v>
+      </c>
+      <c r="AE104">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:31">
       <c r="B105">
         <v>72.55</v>
       </c>
       <c r="C105">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="AC105">
+        <v>73.91</v>
+      </c>
+      <c r="AE105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:31">
       <c r="B106">
         <v>75</v>
       </c>
       <c r="C106">
         <v>76.56</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="AC106">
+        <v>73.930000000000007</v>
+      </c>
+    </row>
+    <row r="107" spans="1:31">
       <c r="B107">
         <v>72.55</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="AC107">
+        <v>74.400000000000006</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31">
       <c r="B108">
         <v>72.55</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="AC108">
+        <v>74.45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31">
       <c r="B109">
         <v>75.33</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="AC109">
+        <v>74.55</v>
+      </c>
+    </row>
+    <row r="110" spans="1:31">
       <c r="B110">
         <v>85.19</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="AC110">
+        <v>74.650000000000006</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31">
       <c r="B111">
         <v>100</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="AC111">
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:31">
       <c r="B112">
         <v>72.55</v>
       </c>
-    </row>
-    <row r="113" spans="2:2">
+      <c r="AC112">
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="113" spans="2:29">
       <c r="B113">
         <v>75.62</v>
       </c>
-    </row>
-    <row r="114" spans="2:2">
+      <c r="AC113">
+        <v>74.81</v>
+      </c>
+    </row>
+    <row r="114" spans="2:29">
       <c r="B114">
         <v>88.46</v>
       </c>
-    </row>
-    <row r="115" spans="2:2">
+      <c r="AC114">
+        <v>74.89</v>
+      </c>
+    </row>
+    <row r="115" spans="2:29">
       <c r="B115">
         <v>74.400000000000006</v>
       </c>
-    </row>
-    <row r="116" spans="2:2">
+      <c r="AC115">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="116" spans="2:29">
       <c r="B116">
         <v>79.03</v>
       </c>
-    </row>
-    <row r="117" spans="2:2">
+      <c r="AC116">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="117" spans="2:29">
       <c r="B117">
         <v>88</v>
       </c>
-    </row>
-    <row r="118" spans="2:2">
+      <c r="AC117">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118" spans="2:29">
       <c r="B118">
         <v>71.430000000000007</v>
       </c>
-    </row>
-    <row r="119" spans="2:2">
+      <c r="AC118">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="119" spans="2:29">
       <c r="B119">
         <v>77.27</v>
       </c>
-    </row>
-    <row r="120" spans="2:2">
+      <c r="AC119">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="120" spans="2:29">
       <c r="B120">
         <v>72.55</v>
       </c>
-    </row>
-    <row r="121" spans="2:2">
+      <c r="AC120">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="121" spans="2:29">
       <c r="B121">
         <v>79.03</v>
       </c>
-    </row>
-    <row r="122" spans="2:2">
+      <c r="AC121">
+        <v>75.14</v>
+      </c>
+    </row>
+    <row r="122" spans="2:29">
       <c r="B122">
         <v>75.180000000000007</v>
       </c>
-    </row>
-    <row r="123" spans="2:2">
+      <c r="AC122">
+        <v>75.16</v>
+      </c>
+    </row>
+    <row r="123" spans="2:29">
       <c r="B123">
         <v>73.209999999999994</v>
       </c>
-    </row>
-    <row r="124" spans="2:2">
+      <c r="AC123">
+        <v>75.180000000000007</v>
+      </c>
+    </row>
+    <row r="124" spans="2:29">
       <c r="B124">
         <v>73.08</v>
       </c>
-    </row>
-    <row r="125" spans="2:2">
+      <c r="AC124">
+        <v>75.290000000000006</v>
+      </c>
+    </row>
+    <row r="125" spans="2:29">
       <c r="B125">
         <v>75.58</v>
       </c>
-    </row>
-    <row r="126" spans="2:2">
+      <c r="AC125">
+        <v>75.33</v>
+      </c>
+    </row>
+    <row r="126" spans="2:29">
       <c r="B126">
         <v>75.97</v>
       </c>
-    </row>
-    <row r="127" spans="2:2">
+      <c r="AC126">
+        <v>75.34</v>
+      </c>
+    </row>
+    <row r="127" spans="2:29">
       <c r="B127">
         <v>73.38</v>
       </c>
-    </row>
-    <row r="128" spans="2:2">
+      <c r="AC127">
+        <v>75.37</v>
+      </c>
+    </row>
+    <row r="128" spans="2:29">
       <c r="B128">
         <v>72.55</v>
       </c>
-    </row>
-    <row r="129" spans="2:2">
+      <c r="AC128">
+        <v>75.38</v>
+      </c>
+    </row>
+    <row r="129" spans="2:29">
       <c r="B129">
         <v>70.67</v>
       </c>
-    </row>
-    <row r="130" spans="2:2">
+      <c r="AC129">
+        <v>75.44</v>
+      </c>
+    </row>
+    <row r="130" spans="2:29">
       <c r="B130">
         <v>72.599999999999994</v>
       </c>
-    </row>
-    <row r="131" spans="2:2">
+      <c r="AC130">
+        <v>75.58</v>
+      </c>
+    </row>
+    <row r="131" spans="2:29">
       <c r="B131">
         <v>73.209999999999994</v>
       </c>
-    </row>
-    <row r="132" spans="2:2">
+      <c r="AC131">
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="132" spans="2:29">
       <c r="B132">
         <v>72.900000000000006</v>
       </c>
-    </row>
-    <row r="133" spans="2:2">
+      <c r="AC132">
+        <v>75.62</v>
+      </c>
+    </row>
+    <row r="133" spans="2:29">
       <c r="B133">
         <v>72.55</v>
       </c>
-    </row>
-    <row r="134" spans="2:2">
+      <c r="AC133">
+        <v>75.739999999999995</v>
+      </c>
+    </row>
+    <row r="134" spans="2:29">
       <c r="B134">
         <v>88</v>
       </c>
-    </row>
-    <row r="135" spans="2:2">
+      <c r="AC134">
+        <v>75.78</v>
+      </c>
+    </row>
+    <row r="135" spans="2:29">
       <c r="B135">
         <v>72.599999999999994</v>
       </c>
-    </row>
-    <row r="136" spans="2:2">
+      <c r="AC135">
+        <v>75.84</v>
+      </c>
+    </row>
+    <row r="136" spans="2:29">
       <c r="B136">
         <v>74.45</v>
       </c>
-    </row>
-    <row r="137" spans="2:2">
+      <c r="AC136">
+        <v>75.84</v>
+      </c>
+    </row>
+    <row r="137" spans="2:29">
       <c r="B137">
         <v>73.81</v>
       </c>
-    </row>
-    <row r="138" spans="2:2">
+      <c r="AC137">
+        <v>75.84</v>
+      </c>
+    </row>
+    <row r="138" spans="2:29">
       <c r="B138">
         <v>72.56</v>
       </c>
-    </row>
-    <row r="139" spans="2:2">
+      <c r="AC138">
+        <v>75.86</v>
+      </c>
+    </row>
+    <row r="139" spans="2:29">
       <c r="B139">
         <v>72.02</v>
       </c>
-    </row>
-    <row r="140" spans="2:2">
+      <c r="AC139">
+        <v>75.94</v>
+      </c>
+    </row>
+    <row r="140" spans="2:29">
       <c r="B140">
         <v>76.52</v>
       </c>
-    </row>
-    <row r="141" spans="2:2">
+      <c r="AC140">
+        <v>75.95</v>
+      </c>
+    </row>
+    <row r="141" spans="2:29">
       <c r="B141">
         <v>71.930000000000007</v>
       </c>
-    </row>
-    <row r="142" spans="2:2">
+      <c r="AC141">
+        <v>75.95</v>
+      </c>
+    </row>
+    <row r="142" spans="2:29">
       <c r="B142">
         <v>72.95</v>
       </c>
-    </row>
-    <row r="143" spans="2:2">
+      <c r="AC142">
+        <v>75.95</v>
+      </c>
+    </row>
+    <row r="143" spans="2:29">
       <c r="B143">
         <v>72.599999999999994</v>
       </c>
-    </row>
-    <row r="144" spans="2:2">
+      <c r="AC143">
+        <v>75.95</v>
+      </c>
+    </row>
+    <row r="144" spans="2:29">
       <c r="B144">
         <v>75.38</v>
       </c>
-    </row>
-    <row r="145" spans="2:2">
+      <c r="AC144">
+        <v>75.95</v>
+      </c>
+    </row>
+    <row r="145" spans="2:29">
       <c r="B145">
         <v>80.95</v>
       </c>
-    </row>
-    <row r="146" spans="2:2">
+      <c r="AC145">
+        <v>75.95</v>
+      </c>
+    </row>
+    <row r="146" spans="2:29">
       <c r="B146">
         <v>83.62</v>
       </c>
-    </row>
-    <row r="147" spans="2:2">
+      <c r="AC146">
+        <v>75.95</v>
+      </c>
+    </row>
+    <row r="147" spans="2:29">
       <c r="B147">
         <v>88.46</v>
       </c>
-    </row>
-    <row r="148" spans="2:2">
+      <c r="AC147">
+        <v>75.97</v>
+      </c>
+    </row>
+    <row r="148" spans="2:29">
       <c r="B148">
         <v>94.87</v>
       </c>
-    </row>
-    <row r="149" spans="2:2">
+      <c r="AC148">
+        <v>76.05</v>
+      </c>
+    </row>
+    <row r="149" spans="2:29">
       <c r="B149">
         <v>75.290000000000006</v>
       </c>
-    </row>
-    <row r="150" spans="2:2">
+      <c r="AC149">
+        <v>76.05</v>
+      </c>
+    </row>
+    <row r="150" spans="2:29">
       <c r="B150">
         <v>74.8</v>
       </c>
-    </row>
-    <row r="151" spans="2:2">
+      <c r="AC150">
+        <v>76.05</v>
+      </c>
+    </row>
+    <row r="151" spans="2:29">
       <c r="B151">
         <v>85.19</v>
       </c>
-    </row>
-    <row r="152" spans="2:2">
+      <c r="AC151">
+        <v>76.099999999999994</v>
+      </c>
+    </row>
+    <row r="152" spans="2:29">
       <c r="B152">
         <v>73.81</v>
       </c>
-    </row>
-    <row r="153" spans="2:2">
+      <c r="AC152">
+        <v>76.12</v>
+      </c>
+    </row>
+    <row r="153" spans="2:29">
       <c r="B153">
         <v>75.95</v>
       </c>
-    </row>
-    <row r="154" spans="2:2">
+      <c r="AC153">
+        <v>76.52</v>
+      </c>
+    </row>
+    <row r="154" spans="2:29">
       <c r="B154">
         <v>88.46</v>
       </c>
-    </row>
-    <row r="155" spans="2:2">
+      <c r="AC154">
+        <v>76.69</v>
+      </c>
+    </row>
+    <row r="155" spans="2:29">
       <c r="B155">
         <v>72.25</v>
       </c>
-    </row>
-    <row r="156" spans="2:2">
+      <c r="AC155">
+        <v>76.83</v>
+      </c>
+    </row>
+    <row r="156" spans="2:29">
       <c r="B156">
         <v>76.83</v>
       </c>
-    </row>
-    <row r="157" spans="2:2">
+      <c r="AC156">
+        <v>77.099999999999994</v>
+      </c>
+    </row>
+    <row r="157" spans="2:29">
       <c r="B157">
         <v>88.46</v>
       </c>
-    </row>
-    <row r="158" spans="2:2">
+      <c r="AC157">
+        <v>77.16</v>
+      </c>
+    </row>
+    <row r="158" spans="2:29">
       <c r="B158">
         <v>72.569999999999993</v>
       </c>
-    </row>
-    <row r="159" spans="2:2">
+      <c r="AC158">
+        <v>77.27</v>
+      </c>
+    </row>
+    <row r="159" spans="2:29">
       <c r="B159">
         <v>100</v>
       </c>
-    </row>
-    <row r="160" spans="2:2">
+      <c r="AC159">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="160" spans="2:29">
       <c r="B160">
         <v>100</v>
       </c>
-    </row>
-    <row r="161" spans="2:2">
+      <c r="AC160">
+        <v>78.459999999999994</v>
+      </c>
+    </row>
+    <row r="161" spans="2:29">
       <c r="B161">
         <v>84.48</v>
       </c>
-    </row>
-    <row r="162" spans="2:2">
+      <c r="AC161">
+        <v>79.03</v>
+      </c>
+    </row>
+    <row r="162" spans="2:29">
       <c r="B162">
         <v>88.46</v>
       </c>
-    </row>
-    <row r="163" spans="2:2">
+      <c r="AC162">
+        <v>79.03</v>
+      </c>
+    </row>
+    <row r="163" spans="2:29">
       <c r="B163">
         <v>86.67</v>
       </c>
-    </row>
-    <row r="164" spans="2:2">
+      <c r="AC163">
+        <v>79.03</v>
+      </c>
+    </row>
+    <row r="164" spans="2:29">
       <c r="B164">
         <v>72.55</v>
       </c>
-    </row>
-    <row r="165" spans="2:2">
+      <c r="AC164">
+        <v>79.03</v>
+      </c>
+    </row>
+    <row r="165" spans="2:29">
       <c r="B165">
         <v>73.209999999999994</v>
       </c>
-    </row>
-    <row r="166" spans="2:2">
+      <c r="AC165">
+        <v>79.03</v>
+      </c>
+    </row>
+    <row r="166" spans="2:29">
       <c r="B166">
         <v>73.209999999999994</v>
       </c>
-    </row>
-    <row r="167" spans="2:2">
+      <c r="AC166">
+        <v>79.03</v>
+      </c>
+    </row>
+    <row r="167" spans="2:29">
       <c r="B167">
         <v>75.95</v>
       </c>
-    </row>
-    <row r="168" spans="2:2">
+      <c r="AC167">
+        <v>79.03</v>
+      </c>
+    </row>
+    <row r="168" spans="2:29">
       <c r="B168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="2:2">
+      <c r="AC168">
+        <v>79.03</v>
+      </c>
+    </row>
+    <row r="169" spans="2:29">
       <c r="B169">
         <v>73.03</v>
       </c>
-    </row>
-    <row r="170" spans="2:2">
+      <c r="AC169">
+        <v>79.47</v>
+      </c>
+    </row>
+    <row r="170" spans="2:29">
       <c r="B170">
         <v>100</v>
       </c>
-    </row>
-    <row r="171" spans="2:2">
+      <c r="AC170">
+        <v>79.69</v>
+      </c>
+    </row>
+    <row r="171" spans="2:29">
       <c r="B171">
         <v>75.84</v>
       </c>
-    </row>
-    <row r="172" spans="2:2">
+      <c r="AC171">
+        <v>80.95</v>
+      </c>
+    </row>
+    <row r="172" spans="2:29">
       <c r="B172">
         <v>72.040000000000006</v>
       </c>
-    </row>
-    <row r="173" spans="2:2">
+      <c r="AC172">
+        <v>82.14</v>
+      </c>
+    </row>
+    <row r="173" spans="2:29">
       <c r="B173">
         <v>72.55</v>
       </c>
-    </row>
-    <row r="174" spans="2:2">
+      <c r="AC173">
+        <v>83.15</v>
+      </c>
+    </row>
+    <row r="174" spans="2:29">
       <c r="B174">
         <v>69.62</v>
       </c>
-    </row>
-    <row r="175" spans="2:2">
+      <c r="AC174">
+        <v>83.62</v>
+      </c>
+    </row>
+    <row r="175" spans="2:29">
       <c r="B175">
         <v>75.14</v>
       </c>
-    </row>
-    <row r="176" spans="2:2">
+      <c r="AC175">
+        <v>84.09</v>
+      </c>
+    </row>
+    <row r="176" spans="2:29">
       <c r="B176">
         <v>88.46</v>
       </c>
-    </row>
-    <row r="177" spans="2:2">
+      <c r="AC176">
+        <v>84.38</v>
+      </c>
+    </row>
+    <row r="177" spans="2:29">
       <c r="B177">
         <v>94.87</v>
       </c>
-    </row>
-    <row r="178" spans="2:2">
+      <c r="AC177">
+        <v>84.48</v>
+      </c>
+    </row>
+    <row r="178" spans="2:29">
       <c r="B178">
         <v>88.46</v>
       </c>
-    </row>
-    <row r="179" spans="2:2">
+      <c r="AC178">
+        <v>84.57</v>
+      </c>
+    </row>
+    <row r="179" spans="2:29">
       <c r="B179">
         <v>79.03</v>
       </c>
-    </row>
-    <row r="180" spans="2:2">
+      <c r="AC179">
+        <v>85.19</v>
+      </c>
+    </row>
+    <row r="180" spans="2:29">
       <c r="B180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="2:2">
+      <c r="AC180">
+        <v>85.19</v>
+      </c>
+    </row>
+    <row r="181" spans="2:29">
       <c r="B181">
         <v>75</v>
       </c>
-    </row>
-    <row r="182" spans="2:2">
+      <c r="AC181">
+        <v>86.67</v>
+      </c>
+    </row>
+    <row r="182" spans="2:29">
       <c r="B182">
         <v>76.05</v>
       </c>
-    </row>
-    <row r="183" spans="2:2">
+      <c r="AC182">
+        <v>86.79</v>
+      </c>
+    </row>
+    <row r="183" spans="2:29">
       <c r="B183">
         <v>89.66</v>
       </c>
-    </row>
-    <row r="184" spans="2:2">
+      <c r="AC183">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="184" spans="2:29">
       <c r="B184">
         <v>72.900000000000006</v>
       </c>
-    </row>
-    <row r="185" spans="2:2">
+      <c r="AC184">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="185" spans="2:29">
       <c r="B185">
         <v>94.87</v>
       </c>
-    </row>
-    <row r="186" spans="2:2">
+      <c r="AC185">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="186" spans="2:29">
       <c r="B186">
         <v>73.209999999999994</v>
       </c>
-    </row>
-    <row r="187" spans="2:2">
+      <c r="AC186">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="187" spans="2:29">
       <c r="B187">
         <v>75</v>
       </c>
-    </row>
-    <row r="188" spans="2:2">
+      <c r="AC187">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="188" spans="2:29">
       <c r="B188">
         <v>75.37</v>
       </c>
-    </row>
-    <row r="189" spans="2:2">
+      <c r="AC188">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="189" spans="2:29">
       <c r="B189">
         <v>73.209999999999994</v>
       </c>
-    </row>
-    <row r="190" spans="2:2">
+      <c r="AC189">
+        <v>88.46</v>
+      </c>
+    </row>
+    <row r="190" spans="2:29">
       <c r="B190">
         <v>74.81</v>
       </c>
-    </row>
-    <row r="191" spans="2:2">
+      <c r="AC190">
+        <v>88.46</v>
+      </c>
+    </row>
+    <row r="191" spans="2:29">
       <c r="B191">
         <v>72.55</v>
       </c>
-    </row>
-    <row r="192" spans="2:2">
+      <c r="AC191">
+        <v>88.46</v>
+      </c>
+    </row>
+    <row r="192" spans="2:29">
       <c r="B192">
         <v>79.03</v>
       </c>
-    </row>
-    <row r="193" spans="2:2">
+      <c r="AC192">
+        <v>88.46</v>
+      </c>
+    </row>
+    <row r="193" spans="2:29">
       <c r="B193">
         <v>72.55</v>
       </c>
-    </row>
-    <row r="194" spans="2:2">
+      <c r="AC193">
+        <v>88.46</v>
+      </c>
+    </row>
+    <row r="194" spans="2:29">
       <c r="B194">
         <v>75</v>
       </c>
-    </row>
-    <row r="195" spans="2:2">
+      <c r="AC194">
+        <v>88.46</v>
+      </c>
+    </row>
+    <row r="195" spans="2:29">
       <c r="B195">
         <v>72.349999999999994</v>
       </c>
-    </row>
-    <row r="196" spans="2:2">
+      <c r="AC195">
+        <v>88.46</v>
+      </c>
+    </row>
+    <row r="196" spans="2:29">
       <c r="B196">
         <v>84.09</v>
       </c>
-    </row>
-    <row r="197" spans="2:2">
+      <c r="AC196">
+        <v>88.46</v>
+      </c>
+    </row>
+    <row r="197" spans="2:29">
       <c r="B197">
         <v>72.55</v>
       </c>
-    </row>
-    <row r="198" spans="2:2">
+      <c r="AC197">
+        <v>88.46</v>
+      </c>
+    </row>
+    <row r="198" spans="2:29">
       <c r="B198">
         <v>73.209999999999994</v>
       </c>
-    </row>
-    <row r="199" spans="2:2">
+      <c r="AC198">
+        <v>88.46</v>
+      </c>
+    </row>
+    <row r="199" spans="2:29">
       <c r="B199">
         <v>94.87</v>
       </c>
-    </row>
-    <row r="200" spans="2:2">
+      <c r="AC199">
+        <v>88.46</v>
+      </c>
+    </row>
+    <row r="200" spans="2:29">
       <c r="B200">
         <v>72.599999999999994</v>
       </c>
-    </row>
-    <row r="201" spans="2:2">
+      <c r="AC200">
+        <v>88.46</v>
+      </c>
+    </row>
+    <row r="201" spans="2:29">
       <c r="B201">
         <v>72.25</v>
       </c>
-    </row>
-    <row r="202" spans="2:2">
+      <c r="AC201">
+        <v>89.66</v>
+      </c>
+    </row>
+    <row r="202" spans="2:29">
       <c r="B202">
         <v>82.14</v>
       </c>
-    </row>
-    <row r="203" spans="2:2">
+      <c r="AC202">
+        <v>94.87</v>
+      </c>
+    </row>
+    <row r="203" spans="2:29">
       <c r="B203">
         <v>100</v>
       </c>
-    </row>
-    <row r="204" spans="2:2">
+      <c r="AC203">
+        <v>94.87</v>
+      </c>
+    </row>
+    <row r="204" spans="2:29">
       <c r="B204">
         <v>77.5</v>
       </c>
-    </row>
-    <row r="205" spans="2:2">
+      <c r="AC204">
+        <v>94.87</v>
+      </c>
+    </row>
+    <row r="205" spans="2:29">
       <c r="B205">
         <v>73.209999999999994</v>
       </c>
-    </row>
-    <row r="206" spans="2:2">
+      <c r="AC205">
+        <v>94.87</v>
+      </c>
+    </row>
+    <row r="206" spans="2:29">
       <c r="B206">
         <v>75.16</v>
       </c>
-    </row>
-    <row r="207" spans="2:2">
+      <c r="AC206">
+        <v>94.87</v>
+      </c>
+    </row>
+    <row r="207" spans="2:29">
       <c r="B207">
         <v>73.81</v>
       </c>
-    </row>
-    <row r="208" spans="2:2">
+      <c r="AC207">
+        <v>94.87</v>
+      </c>
+    </row>
+    <row r="208" spans="2:29">
       <c r="B208">
         <v>73.209999999999994</v>
       </c>
-    </row>
-    <row r="209" spans="2:2">
+      <c r="AC208">
+        <v>94.87</v>
+      </c>
+    </row>
+    <row r="209" spans="2:29">
       <c r="B209">
         <v>73.209999999999994</v>
       </c>
-    </row>
-    <row r="210" spans="2:2">
+      <c r="AC209">
+        <v>94.87</v>
+      </c>
+    </row>
+    <row r="210" spans="2:29">
       <c r="B210">
         <v>73.81</v>
       </c>
-    </row>
-    <row r="211" spans="2:2">
+      <c r="AC210">
+        <v>94.87</v>
+      </c>
+    </row>
+    <row r="211" spans="2:29">
       <c r="B211">
         <v>73.209999999999994</v>
       </c>
-    </row>
-    <row r="212" spans="2:2">
+      <c r="AC211">
+        <v>95.45</v>
+      </c>
+    </row>
+    <row r="212" spans="2:29">
       <c r="B212">
         <v>71.930000000000007</v>
       </c>
-    </row>
-    <row r="213" spans="2:2">
+      <c r="AC212">
+        <v>97.67</v>
+      </c>
+    </row>
+    <row r="213" spans="2:29">
       <c r="B213">
         <v>79.03</v>
       </c>
-    </row>
-    <row r="214" spans="2:2">
+      <c r="AC213">
+        <v>97.78</v>
+      </c>
+    </row>
+    <row r="214" spans="2:29">
       <c r="B214">
         <v>72.55</v>
       </c>
-    </row>
-    <row r="215" spans="2:2">
+      <c r="AC214">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="215" spans="2:29">
       <c r="B215">
         <v>74.8</v>
       </c>
-    </row>
-    <row r="216" spans="2:2">
+      <c r="AC215">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="216" spans="2:29">
       <c r="B216">
         <v>79.03</v>
       </c>
-    </row>
-    <row r="217" spans="2:2">
+      <c r="AC216">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="217" spans="2:29">
       <c r="B217">
         <v>69.62</v>
       </c>
-    </row>
-    <row r="218" spans="2:2">
+      <c r="AC217">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="218" spans="2:29">
       <c r="B218">
         <v>100</v>
       </c>
-    </row>
-    <row r="219" spans="2:2">
+      <c r="AC218">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="219" spans="2:29">
       <c r="B219">
         <v>75</v>
       </c>
-    </row>
-    <row r="220" spans="2:2">
+      <c r="AC219">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="220" spans="2:29">
       <c r="B220">
         <v>100</v>
       </c>
-    </row>
-    <row r="221" spans="2:2">
+      <c r="AC220">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="221" spans="2:29">
       <c r="B221">
         <v>79.03</v>
       </c>
-    </row>
-    <row r="222" spans="2:2">
+      <c r="AC221">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="222" spans="2:29">
       <c r="B222">
         <v>75.78</v>
       </c>
-    </row>
-    <row r="223" spans="2:2">
+      <c r="AC222">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="223" spans="2:29">
       <c r="B223">
         <v>94.87</v>
       </c>
-    </row>
-    <row r="224" spans="2:2">
+      <c r="AC223">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224" spans="2:29">
       <c r="B224">
         <v>86.79</v>
       </c>
-    </row>
-    <row r="225" spans="2:2">
+      <c r="AC224">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="225" spans="2:29">
       <c r="B225">
         <v>76.05</v>
       </c>
-    </row>
-    <row r="226" spans="2:2">
+      <c r="AC225">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="226" spans="2:29">
       <c r="B226">
         <v>88.46</v>
       </c>
-    </row>
-    <row r="227" spans="2:2">
+      <c r="AC226">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="227" spans="2:29">
       <c r="B227">
         <v>84.57</v>
       </c>
-    </row>
-    <row r="228" spans="2:2">
+      <c r="AC227">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="228" spans="2:29">
       <c r="B228">
         <v>95.45</v>
       </c>
-    </row>
-    <row r="229" spans="2:2">
+      <c r="AC228">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="229" spans="2:29">
       <c r="B229">
         <v>75.739999999999995</v>
       </c>
-    </row>
-    <row r="230" spans="2:2">
+      <c r="AC229">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="230" spans="2:29">
       <c r="B230">
         <v>73.81</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="AE2:AE105">
+    <sortCondition ref="AE2"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/papers/data-intensive-bio/results/FDRs.xlsx
+++ b/papers/data-intensive-bio/results/FDRs.xlsx
@@ -275,6 +275,48 @@
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$4:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$T$4:$T$14</c:f>
@@ -340,6 +382,48 @@
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$4:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$U$4:$U$14</c:f>
@@ -405,6 +489,48 @@
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$4:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$V$4:$V$14</c:f>
@@ -486,6 +612,7 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -937,7 +1064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
       <selection activeCell="T3" sqref="T3:V14"/>
     </sheetView>
   </sheetViews>
